--- a/data/trans_dic/P42C_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P42C_R-Edad-trans_dic.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2126286564664253</v>
+        <v>0.216280131095684</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1554355382978065</v>
+        <v>0.159445093263201</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2358091403898619</v>
+        <v>0.2364129528538402</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3286943031222853</v>
+        <v>0.3285516966045788</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2625414098894148</v>
+        <v>0.2672503490528861</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4842867930291287</v>
+        <v>0.4995461163708252</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.256206372322524</v>
+        <v>0.2545057060064448</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1764835404104062</v>
+        <v>0.1767420686420656</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2326364639197375</v>
+        <v>0.2346168814265193</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3403886926618214</v>
+        <v>0.3454361417216771</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2511354770068127</v>
+        <v>0.2488417532430781</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3592770676280435</v>
+        <v>0.3585000256793122</v>
       </c>
     </row>
     <row r="10">
@@ -700,7 +700,7 @@
         <v>0.2044121105606827</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.2524044789188728</v>
+        <v>0.2524044789188729</v>
       </c>
     </row>
     <row r="11">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2478105552617209</v>
+        <v>0.2465029708063415</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1717530000637127</v>
+        <v>0.1739920440598422</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2102786967692243</v>
+        <v>0.2163360743179985</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3233491280961975</v>
+        <v>0.3222483242698529</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2384238264900384</v>
+        <v>0.238253193447544</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2928493217756747</v>
+        <v>0.2951103628969574</v>
       </c>
     </row>
     <row r="13">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2264631006769306</v>
+        <v>0.223340351094255</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.117112542406821</v>
+        <v>0.1128867426759636</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2963001847785977</v>
+        <v>0.2949190895051285</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3082113395604697</v>
+        <v>0.3083844320265886</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1753797528925023</v>
+        <v>0.1739868638796452</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3669290689579409</v>
+        <v>0.3664638041642236</v>
       </c>
     </row>
     <row r="16">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1274047198951082</v>
+        <v>0.1262829380345037</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09604826892321072</v>
+        <v>0.09480745061339432</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1814703712488266</v>
+        <v>0.180177854738059</v>
       </c>
     </row>
     <row r="18">
@@ -838,13 +838,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2115381234206944</v>
+        <v>0.2087202547604042</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1637837164284139</v>
+        <v>0.1644499030822373</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2460462963215211</v>
+        <v>0.2480107368547205</v>
       </c>
     </row>
     <row r="19">
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.111369748092577</v>
+        <v>0.105768645613791</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06246203355679343</v>
+        <v>0.06160042508189831</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1393309994115177</v>
+        <v>0.13866225001003</v>
       </c>
     </row>
     <row r="21">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2034325664684613</v>
+        <v>0.2036076131300348</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1302973106474007</v>
+        <v>0.1381909501164214</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2010632982215743</v>
+        <v>0.2036040118687148</v>
       </c>
     </row>
     <row r="22">
@@ -920,7 +920,7 @@
         <v>0.02059247077641529</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1193968282696205</v>
+        <v>0.1193968282696204</v>
       </c>
     </row>
     <row r="23">
@@ -931,13 +931,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.07791082851136413</v>
+        <v>0.07485793473441665</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.005910872914746773</v>
+        <v>0.006048596542727833</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.09266122365439855</v>
+        <v>0.09082433477305256</v>
       </c>
     </row>
     <row r="24">
@@ -948,13 +948,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1727017055625099</v>
+        <v>0.1759432243132838</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0580515703304975</v>
+        <v>0.05525147009121131</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1520714378344502</v>
+        <v>0.1488557262104352</v>
       </c>
     </row>
     <row r="25">
@@ -975,7 +975,7 @@
         <v>0.1546882204377477</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.2430167787613406</v>
+        <v>0.2430167787613405</v>
       </c>
     </row>
     <row r="26">
@@ -986,13 +986,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2226620354067518</v>
+        <v>0.2218427587870181</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1413925669085788</v>
+        <v>0.1415163896537507</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2272862255232194</v>
+        <v>0.2256968752113514</v>
       </c>
     </row>
     <row r="27">
@@ -1003,13 +1003,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2601567587401805</v>
+        <v>0.2558787532653669</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1698894852450107</v>
+        <v>0.1695969681771633</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2596637599534641</v>
+        <v>0.2586387981975807</v>
       </c>
     </row>
     <row r="28">
@@ -1147,13 +1147,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>49470</v>
+        <v>50319</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>33551</v>
+        <v>34417</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>25312</v>
+        <v>25377</v>
       </c>
     </row>
     <row r="7">
@@ -1164,13 +1164,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>76473</v>
+        <v>76440</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>56670</v>
+        <v>57687</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>51984</v>
+        <v>53622</v>
       </c>
     </row>
     <row r="8">
@@ -1219,13 +1219,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>125277</v>
+        <v>124446</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>81717</v>
+        <v>81837</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>56428</v>
+        <v>56908</v>
       </c>
     </row>
     <row r="11">
@@ -1236,13 +1236,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>166440</v>
+        <v>168908</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>116283</v>
+        <v>115221</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>87146</v>
+        <v>86957</v>
       </c>
     </row>
     <row r="12">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>153361</v>
+        <v>152551</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>100166</v>
+        <v>101472</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>72767</v>
+        <v>74863</v>
       </c>
     </row>
     <row r="15">
@@ -1308,13 +1308,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>200108</v>
+        <v>199427</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>139049</v>
+        <v>138949</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>101341</v>
+        <v>102123</v>
       </c>
     </row>
     <row r="16">
@@ -1363,13 +1363,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>121716</v>
+        <v>120038</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>67372</v>
+        <v>64941</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>133644</v>
+        <v>133021</v>
       </c>
     </row>
     <row r="19">
@@ -1380,13 +1380,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>165653</v>
+        <v>165746</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>100891</v>
+        <v>100090</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>165501</v>
+        <v>165291</v>
       </c>
     </row>
     <row r="20">
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>49770</v>
+        <v>49332</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>41530</v>
+        <v>40994</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>72025</v>
+        <v>71512</v>
       </c>
     </row>
     <row r="23">
@@ -1452,13 +1452,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>82636</v>
+        <v>81535</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>70818</v>
+        <v>71106</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>97656</v>
+        <v>98435</v>
       </c>
     </row>
     <row r="24">
@@ -1507,13 +1507,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>28682</v>
+        <v>27239</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>17616</v>
+        <v>17373</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>41205</v>
+        <v>41007</v>
       </c>
     </row>
     <row r="27">
@@ -1524,13 +1524,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>52391</v>
+        <v>52436</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>36748</v>
+        <v>38974</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>59461</v>
+        <v>60213</v>
       </c>
     </row>
     <row r="28">
@@ -1579,13 +1579,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>16665</v>
+        <v>16012</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1330</v>
+        <v>1361</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>25076</v>
+        <v>24578</v>
       </c>
     </row>
     <row r="31">
@@ -1596,13 +1596,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>36941</v>
+        <v>37634</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>13061</v>
+        <v>12431</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>41153</v>
+        <v>40283</v>
       </c>
     </row>
     <row r="32">
@@ -1651,13 +1651,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>610102</v>
+        <v>607857</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>392612</v>
+        <v>392956</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>479629</v>
+        <v>476275</v>
       </c>
     </row>
     <row r="35">
@@ -1668,13 +1668,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>712838</v>
+        <v>701116</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>471741</v>
+        <v>470929</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>547954</v>
+        <v>545791</v>
       </c>
     </row>
     <row r="36">
